--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,7 +798,9 @@
       <c r="D22" t="n">
         <v>1.389999985694885</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1.404999971389771</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -810,7 +812,9 @@
       <c r="C23" t="n">
         <v>1.389999985694885</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1.404999971389771</v>
+      </c>
       <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -820,9 +824,22 @@
       <c r="B24" t="n">
         <v>1.389999985694885</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>1.404999971389771</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -835,7 +852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,13 +1069,13 @@
         <v>45600</v>
       </c>
       <c r="B15" t="n">
-        <v>1.381129384040833</v>
+        <v>1.378793120384216</v>
       </c>
       <c r="C15" t="n">
-        <v>1.423320651054382</v>
+        <v>1.425215601921082</v>
       </c>
       <c r="D15" t="n">
-        <v>1.364025712013245</v>
+        <v>1.39594042301178</v>
       </c>
     </row>
     <row r="16">
@@ -1066,13 +1083,13 @@
         <v>45607</v>
       </c>
       <c r="B16" t="n">
-        <v>1.416675567626953</v>
+        <v>1.413713693618774</v>
       </c>
       <c r="C16" t="n">
-        <v>1.418803215026855</v>
+        <v>1.419266819953918</v>
       </c>
       <c r="D16" t="n">
-        <v>1.380090236663818</v>
+        <v>1.419496893882751</v>
       </c>
     </row>
     <row r="17">
@@ -1080,13 +1097,13 @@
         <v>45614</v>
       </c>
       <c r="B17" t="n">
-        <v>1.403352737426758</v>
+        <v>1.400759339332581</v>
       </c>
       <c r="C17" t="n">
-        <v>1.353735446929932</v>
+        <v>1.352471113204956</v>
       </c>
       <c r="D17" t="n">
-        <v>1.37575900554657</v>
+        <v>1.398078322410583</v>
       </c>
     </row>
     <row r="18">
@@ -1094,13 +1111,13 @@
         <v>45621</v>
       </c>
       <c r="B18" t="n">
-        <v>1.382707715034485</v>
+        <v>1.379986166954041</v>
       </c>
       <c r="C18" t="n">
-        <v>1.358567833900452</v>
+        <v>1.357303500175476</v>
       </c>
       <c r="D18" t="n">
-        <v>1.32052206993103</v>
+        <v>1.346245050430298</v>
       </c>
     </row>
     <row r="19">
@@ -1185,6 +1202,20 @@
       </c>
       <c r="D24" t="n">
         <v>1.332083940505981</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.361780881881714</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.373011112213135</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.330144762992859</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,7 +815,9 @@
       <c r="D23" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>1.404999971389771</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -827,7 +829,9 @@
       <c r="C24" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>1.404999971389771</v>
+      </c>
       <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -837,9 +841,22 @@
       <c r="B25" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1.404999971389771</v>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -852,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,6 +1235,20 @@
         <v>1.330144762992859</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.402897357940674</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.373286366462708</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.338665127754211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,132 +467,132 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.414999961853027</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.414999961853027</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.439999997615814</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>1.399999976158142</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
         <v>1.399999976158142</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.550000011920929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
         <v>1.399999976158142</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>1.550000011920929</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B6" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>1.399999976158142</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.550000011920929</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.399999976158142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C7" t="n">
         <v>1.550000011920929</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1.399999976158142</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.396666646003723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
+        <v>1.550000011920929</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1.399999976158142</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1.396666646003723</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.359999984502792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.399999976158142</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1.396666646003723</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1.359999984502792</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.415000021457672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.396666646003723</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1.359999984502792</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.415000021457672</v>
       </c>
       <c r="E10" t="n">
         <v>1.415000021457672</v>
@@ -600,33 +600,33 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
+        <v>1.396666646003723</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.359999984502792</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.415000021457672</v>
       </c>
       <c r="D11" t="n">
         <v>1.415000021457672</v>
       </c>
       <c r="E11" t="n">
-        <v>1.420000016689301</v>
+        <v>1.415000021457672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.415000021457672</v>
+        <v>1.359999984502792</v>
       </c>
       <c r="C12" t="n">
         <v>1.415000021457672</v>
       </c>
       <c r="D12" t="n">
-        <v>1.420000016689301</v>
+        <v>1.415000021457672</v>
       </c>
       <c r="E12" t="n">
         <v>1.420000016689301</v>
@@ -634,84 +634,84 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
         <v>1.415000021457672</v>
       </c>
       <c r="C13" t="n">
-        <v>1.420000016689301</v>
+        <v>1.415000021457672</v>
       </c>
       <c r="D13" t="n">
         <v>1.420000016689301</v>
       </c>
       <c r="E13" t="n">
-        <v>1.400000035762787</v>
+        <v>1.420000016689301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.420000016689301</v>
+        <v>1.415000021457672</v>
       </c>
       <c r="C14" t="n">
         <v>1.420000016689301</v>
       </c>
       <c r="D14" t="n">
+        <v>1.420000016689301</v>
+      </c>
+      <c r="E14" t="n">
         <v>1.400000035762787</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.410000026226044</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
         <v>1.420000016689301</v>
       </c>
       <c r="C15" t="n">
+        <v>1.420000016689301</v>
+      </c>
+      <c r="D15" t="n">
         <v>1.400000035762787</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>1.410000026226044</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.405000030994415</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
+        <v>1.420000016689301</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.400000035762787</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>1.410000026226044</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>1.405000030994415</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.384999990463257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
+        <v>1.400000035762787</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.410000026226044</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>1.405000030994415</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.384999990463257</v>
       </c>
       <c r="E17" t="n">
         <v>1.384999990463257</v>
@@ -719,13 +719,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
+        <v>1.410000026226044</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.405000030994415</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.384999990463257</v>
       </c>
       <c r="D18" t="n">
         <v>1.384999990463257</v>
@@ -736,10 +736,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.384999990463257</v>
+        <v>1.405000030994415</v>
       </c>
       <c r="C19" t="n">
         <v>1.384999990463257</v>
@@ -748,12 +748,12 @@
         <v>1.384999990463257</v>
       </c>
       <c r="E19" t="n">
-        <v>1.375</v>
+        <v>1.384999990463257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
         <v>1.384999990463257</v>
@@ -762,7 +762,7 @@
         <v>1.384999990463257</v>
       </c>
       <c r="D20" t="n">
-        <v>1.375</v>
+        <v>1.384999990463257</v>
       </c>
       <c r="E20" t="n">
         <v>1.375</v>
@@ -770,50 +770,50 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
         <v>1.384999990463257</v>
       </c>
       <c r="C21" t="n">
-        <v>1.375</v>
+        <v>1.384999990463257</v>
       </c>
       <c r="D21" t="n">
         <v>1.375</v>
       </c>
       <c r="E21" t="n">
-        <v>1.389999985694885</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.375</v>
+        <v>1.384999990463257</v>
       </c>
       <c r="C22" t="n">
         <v>1.375</v>
       </c>
       <c r="D22" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="E22" t="n">
         <v>1.389999985694885</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.404999971389771</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
         <v>1.375</v>
       </c>
       <c r="C23" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.389999985694885</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.404999971389771</v>
       </c>
       <c r="E23" t="n">
         <v>1.404999971389771</v>
@@ -821,42 +821,76 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="C24" t="n">
         <v>1.389999985694885</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.404999971389771</v>
       </c>
       <c r="D24" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>1.404999971389771</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45677</v>
+        <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.404999971389771</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="C25" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.409999966621399</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45684</v>
+        <v>45677</v>
       </c>
       <c r="B26" t="n">
         <v>1.404999971389771</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.409999966621399</v>
+      </c>
       <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.404999971389771</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.409999966621399</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.409999966621399</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -869,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,352 +935,380 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.157732486724854</v>
+        <v>1.327303290367126</v>
       </c>
       <c r="C2" t="n">
-        <v>1.186078310012817</v>
+        <v>1.283318400382996</v>
       </c>
       <c r="D2" t="n">
-        <v>1.189921736717224</v>
+        <v>1.262876868247986</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.160968780517578</v>
+        <v>1.118595719337463</v>
       </c>
       <c r="C3" t="n">
-        <v>1.205609917640686</v>
+        <v>1.180309772491455</v>
       </c>
       <c r="D3" t="n">
-        <v>1.183254241943359</v>
+        <v>1.133480072021484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.201311469078064</v>
+        <v>1.118426322937012</v>
       </c>
       <c r="C4" t="n">
-        <v>1.17943012714386</v>
+        <v>1.182134389877319</v>
       </c>
       <c r="D4" t="n">
-        <v>1.222406029701233</v>
+        <v>1.133833169937134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.210817813873291</v>
+        <v>1.118588209152222</v>
       </c>
       <c r="C5" t="n">
-        <v>1.177163243293762</v>
+        <v>1.230491757392883</v>
       </c>
       <c r="D5" t="n">
-        <v>1.22490382194519</v>
+        <v>1.157244801521301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.383364796638489</v>
+        <v>1.10472571849823</v>
       </c>
       <c r="C6" t="n">
-        <v>1.385759353637695</v>
+        <v>1.186688303947449</v>
       </c>
       <c r="D6" t="n">
-        <v>1.321544885635376</v>
+        <v>1.183639883995056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.406982898712158</v>
+        <v>1.366527795791626</v>
       </c>
       <c r="C7" t="n">
-        <v>1.403981685638428</v>
+        <v>1.312308549880981</v>
       </c>
       <c r="D7" t="n">
-        <v>1.316593766212463</v>
+        <v>1.311977863311768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.418089151382446</v>
+        <v>1.384416937828064</v>
       </c>
       <c r="C8" t="n">
-        <v>1.4233318567276</v>
+        <v>1.343031167984009</v>
       </c>
       <c r="D8" t="n">
-        <v>1.35468065738678</v>
+        <v>1.322190880775452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.43525767326355</v>
+        <v>1.40330982208252</v>
       </c>
       <c r="C9" t="n">
-        <v>1.42176365852356</v>
+        <v>1.431721806526184</v>
       </c>
       <c r="D9" t="n">
-        <v>1.36892557144165</v>
+        <v>1.407690167427063</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.367775917053223</v>
+        <v>1.415173053741455</v>
       </c>
       <c r="C10" t="n">
-        <v>1.444661974906921</v>
+        <v>1.423255562782288</v>
       </c>
       <c r="D10" t="n">
-        <v>1.379133701324463</v>
+        <v>1.404196858406067</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.404152989387512</v>
+        <v>1.378350496292114</v>
       </c>
       <c r="C11" t="n">
-        <v>1.365019559860229</v>
+        <v>1.376807570457458</v>
       </c>
       <c r="D11" t="n">
-        <v>1.413897395133972</v>
+        <v>1.346186757087708</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.407889723777771</v>
+        <v>1.371074795722961</v>
       </c>
       <c r="C12" t="n">
-        <v>1.423004031181335</v>
+        <v>1.373456120491028</v>
       </c>
       <c r="D12" t="n">
-        <v>1.387329459190369</v>
+        <v>1.407557845115662</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.419136166572571</v>
+        <v>1.389886498451233</v>
       </c>
       <c r="C13" t="n">
-        <v>1.382871866226196</v>
+        <v>1.416725516319275</v>
       </c>
       <c r="D13" t="n">
-        <v>1.374457478523254</v>
+        <v>1.391860842704773</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.380473494529724</v>
+        <v>1.401596665382385</v>
       </c>
       <c r="C14" t="n">
-        <v>1.424741268157959</v>
+        <v>1.390928149223328</v>
       </c>
       <c r="D14" t="n">
-        <v>1.416810631752014</v>
+        <v>1.381156325340271</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.378793120384216</v>
+        <v>1.405396342277527</v>
       </c>
       <c r="C15" t="n">
-        <v>1.425215601921082</v>
+        <v>1.422654390335083</v>
       </c>
       <c r="D15" t="n">
-        <v>1.39594042301178</v>
+        <v>1.418209314346313</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.413713693618774</v>
+        <v>1.41142737865448</v>
       </c>
       <c r="C16" t="n">
-        <v>1.419266819953918</v>
+        <v>1.390334248542786</v>
       </c>
       <c r="D16" t="n">
-        <v>1.419496893882751</v>
+        <v>1.397422790527344</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.400759339332581</v>
+        <v>1.412934422492981</v>
       </c>
       <c r="C17" t="n">
-        <v>1.352471113204956</v>
+        <v>1.393221616744995</v>
       </c>
       <c r="D17" t="n">
-        <v>1.398078322410583</v>
+        <v>1.384563088417053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.379986166954041</v>
+        <v>1.386327624320984</v>
       </c>
       <c r="C18" t="n">
-        <v>1.357303500175476</v>
+        <v>1.345127105712891</v>
       </c>
       <c r="D18" t="n">
-        <v>1.346245050430298</v>
+        <v>1.3665531873703</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.405112028121948</v>
+        <v>1.395095467567444</v>
       </c>
       <c r="C19" t="n">
-        <v>1.359248280525208</v>
+        <v>1.353080630302429</v>
       </c>
       <c r="D19" t="n">
-        <v>1.338304996490479</v>
+        <v>1.29677140712738</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.408129811286926</v>
+        <v>1.401148676872253</v>
       </c>
       <c r="C20" t="n">
-        <v>1.377137660980225</v>
+        <v>1.361199378967285</v>
       </c>
       <c r="D20" t="n">
-        <v>1.353217124938965</v>
+        <v>1.329337239265442</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.36551034450531</v>
+        <v>1.41101610660553</v>
       </c>
       <c r="C21" t="n">
-        <v>1.373263239860535</v>
+        <v>1.353687286376953</v>
       </c>
       <c r="D21" t="n">
-        <v>1.350368499755859</v>
+        <v>1.282984495162964</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.348336935043335</v>
+        <v>1.37261974811554</v>
       </c>
       <c r="C22" t="n">
-        <v>1.278231620788574</v>
+        <v>1.30368185043335</v>
       </c>
       <c r="D22" t="n">
-        <v>1.34922981262207</v>
+        <v>1.276268839836121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.409315705299377</v>
+        <v>1.359132289886475</v>
       </c>
       <c r="C23" t="n">
-        <v>1.388322830200195</v>
+        <v>1.31640613079071</v>
       </c>
       <c r="D23" t="n">
-        <v>1.382774353027344</v>
+        <v>1.244559407234192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.363699316978455</v>
+        <v>1.331289768218994</v>
       </c>
       <c r="C24" t="n">
-        <v>1.364793658256531</v>
+        <v>1.306013822555542</v>
       </c>
       <c r="D24" t="n">
-        <v>1.332083940505981</v>
+        <v>1.269266963005066</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45677</v>
+        <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.361780881881714</v>
+        <v>1.375688791275024</v>
       </c>
       <c r="C25" t="n">
-        <v>1.373011112213135</v>
+        <v>1.314125895500183</v>
       </c>
       <c r="D25" t="n">
-        <v>1.330144762992859</v>
+        <v>1.274172306060791</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.38669216632843</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.31138801574707</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.285156011581421</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>45684</v>
       </c>
-      <c r="B26" t="n">
-        <v>1.402897357940674</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.373286366462708</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.338665127754211</v>
+      <c r="B27" t="n">
+        <v>1.408933281898499</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.337241768836975</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.2733234167099</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.341864943504333</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.290771126747131</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.27293848991394</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 170/220G CAT.I PLATEAU 1RG_S+1</t>
+          <t>PRIX EXP POMME GALA FRANCE 170/220G CAT.I PLATEAU 1RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 170/220G CAT.I PLATEAU 1RG_S+2</t>
+          <t>PRIX EXP POMME GALA FRANCE 170/220G CAT.I PLATEAU 1RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 170/220G CAT.I PLATEAU 1RG_S+3</t>
+          <t>PRIX EXP POMME GALA FRANCE 170/220G CAT.I PLATEAU 1RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.375</v>
       </c>
       <c r="C2" t="n">
-        <v>1.414999961853027</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.414999961853027</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.439999997615814</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -487,19 +487,29 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
       <c r="E4" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -507,12 +517,14 @@
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
       <c r="D5" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1.550000011920929</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +533,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.550000011920929</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -538,13 +550,13 @@
         <v>1.399999976158142</v>
       </c>
       <c r="C7" t="n">
-        <v>1.550000011920929</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.399999976158142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -555,13 +567,13 @@
         <v>1.550000011920929</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.399999976158142</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.396666646003723</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -572,13 +584,13 @@
         <v>1.5</v>
       </c>
       <c r="C9" t="n">
-        <v>1.399999976158142</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.396666646003723</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1.359999984502792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -589,13 +601,13 @@
         <v>1.399999976158142</v>
       </c>
       <c r="C10" t="n">
-        <v>1.396666646003723</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1.359999984502792</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1.415000021457672</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +618,13 @@
         <v>1.396666646003723</v>
       </c>
       <c r="C11" t="n">
-        <v>1.359999984502792</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1.415000021457672</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>1.415000021457672</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -623,13 +635,13 @@
         <v>1.359999984502792</v>
       </c>
       <c r="C12" t="n">
-        <v>1.415000021457672</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1.415000021457672</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1.420000016689301</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -640,13 +652,13 @@
         <v>1.415000021457672</v>
       </c>
       <c r="C13" t="n">
-        <v>1.415000021457672</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1.420000016689301</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1.420000016689301</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -657,13 +669,13 @@
         <v>1.415000021457672</v>
       </c>
       <c r="C14" t="n">
-        <v>1.420000016689301</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.420000016689301</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1.400000035762787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -674,13 +686,13 @@
         <v>1.420000016689301</v>
       </c>
       <c r="C15" t="n">
-        <v>1.420000016689301</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.400000035762787</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.410000026226044</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -691,13 +703,13 @@
         <v>1.420000016689301</v>
       </c>
       <c r="C16" t="n">
-        <v>1.400000035762787</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1.410000026226044</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1.405000030994415</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -708,13 +720,13 @@
         <v>1.400000035762787</v>
       </c>
       <c r="C17" t="n">
-        <v>1.410000026226044</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1.405000030994415</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1.384999990463257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -725,13 +737,13 @@
         <v>1.410000026226044</v>
       </c>
       <c r="C18" t="n">
-        <v>1.405000030994415</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.384999990463257</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -742,13 +754,13 @@
         <v>1.405000030994415</v>
       </c>
       <c r="C19" t="n">
-        <v>1.384999990463257</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -759,13 +771,13 @@
         <v>1.384999990463257</v>
       </c>
       <c r="C20" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1.375</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -776,13 +788,13 @@
         <v>1.384999990463257</v>
       </c>
       <c r="C21" t="n">
-        <v>1.384999990463257</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1.375</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -793,13 +805,13 @@
         <v>1.384999990463257</v>
       </c>
       <c r="C22" t="n">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1.389999985694885</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -810,13 +822,13 @@
         <v>1.375</v>
       </c>
       <c r="C23" t="n">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.389999985694885</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1.404999971389771</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -827,13 +839,13 @@
         <v>1.375</v>
       </c>
       <c r="C24" t="n">
-        <v>1.389999985694885</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>1.404999971389771</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>1.404999971389771</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -844,13 +856,13 @@
         <v>1.389999985694885</v>
       </c>
       <c r="C25" t="n">
-        <v>1.404999971389771</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>1.404999971389771</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1.409999966621399</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -861,12 +873,14 @@
         <v>1.404999971389771</v>
       </c>
       <c r="C26" t="n">
-        <v>1.404999971389771</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.409999966621399</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -876,10 +890,14 @@
         <v>1.404999971389771</v>
       </c>
       <c r="C27" t="n">
-        <v>1.409999966621399</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -888,9 +906,15 @@
       <c r="B28" t="n">
         <v>1.409999966621399</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -938,13 +962,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.327303290367126</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.283318400382996</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.262876868247986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -952,13 +976,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.118595719337463</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.180309772491455</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.133480072021484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -966,13 +990,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.118426322937012</v>
+        <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.182134389877319</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.133833169937134</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -980,13 +1004,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.118588209152222</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1.230491757392883</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.157244801521301</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -994,13 +1018,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.10472571849823</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1.186688303947449</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.183639883995056</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1008,13 +1032,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.366527795791626</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1.312308549880981</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.311977863311768</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8">
@@ -1022,13 +1046,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.384416937828064</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.343031167984009</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.322190880775452</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1036,13 +1060,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.40330982208252</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.431721806526184</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="n">
-        <v>1.407690167427063</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1050,13 +1074,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.415173053741455</v>
+        <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.423255562782288</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.404196858406067</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1064,13 +1088,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.378350496292114</v>
+        <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.376807570457458</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.346186757087708</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1078,13 +1102,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.371074795722961</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.373456120491028</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.407557845115662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1092,13 +1116,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.389886498451233</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.416725516319275</v>
+        <v>-1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.391860842704773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1106,13 +1130,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.401596665382385</v>
+        <v>-1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.390928149223328</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.381156325340271</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15">
@@ -1120,13 +1144,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.405396342277527</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.422654390335083</v>
+        <v>-1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.418209314346313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1134,13 +1158,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.41142737865448</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.390334248542786</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.397422790527344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1148,13 +1172,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.412934422492981</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.393221616744995</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.384563088417053</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -1162,13 +1186,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.386327624320984</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.345127105712891</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.3665531873703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1176,13 +1200,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.395095467567444</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.353080630302429</v>
+        <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.29677140712738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1190,13 +1214,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.401148676872253</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.361199378967285</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.329337239265442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1204,13 +1228,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.41101610660553</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.353687286376953</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.282984495162964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1218,13 +1242,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.37261974811554</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.30368185043335</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.276268839836121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1232,13 +1256,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.359132289886475</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.31640613079071</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.244559407234192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1246,13 +1270,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.331289768218994</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.306013822555542</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.269266963005066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1260,13 +1284,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.375688791275024</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.314125895500183</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.274172306060791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1274,13 +1298,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.38669216632843</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.31138801574707</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.285156011581421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1288,13 +1312,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.408933281898499</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.337241768836975</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.2733234167099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1302,13 +1326,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.341864943504333</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.290771126747131</v>
+        <v>-1</v>
       </c>
       <c r="D28" t="n">
-        <v>1.27293848991394</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
